--- a/data/pca/factorExposure/factorExposure_2017-08-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02415686241573263</v>
+        <v>0.007009957344213156</v>
       </c>
       <c r="C2">
-        <v>-0.005546408189040931</v>
+        <v>0.04221152882646475</v>
       </c>
       <c r="D2">
-        <v>-0.01751762774197468</v>
+        <v>0.02975121587489319</v>
       </c>
       <c r="E2">
-        <v>0.009628014244759365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03166111818885649</v>
+      </c>
+      <c r="F2">
+        <v>0.01657924087085835</v>
+      </c>
+      <c r="G2">
+        <v>-0.04592711648371756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01551191937619208</v>
+        <v>0.05557809389749019</v>
       </c>
       <c r="C3">
-        <v>-0.05681569928246148</v>
+        <v>0.06800858738870796</v>
       </c>
       <c r="D3">
-        <v>-0.007242495072784535</v>
+        <v>0.01459844952752435</v>
       </c>
       <c r="E3">
-        <v>0.006879934884773013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09770816176402142</v>
+      </c>
+      <c r="F3">
+        <v>0.03610334851933489</v>
+      </c>
+      <c r="G3">
+        <v>-0.1011163616349555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0230374178105989</v>
+        <v>0.05584083554631271</v>
       </c>
       <c r="C4">
-        <v>-0.02338014027104165</v>
+        <v>0.06375993587792855</v>
       </c>
       <c r="D4">
-        <v>-0.06126473149620991</v>
+        <v>0.02337682708008629</v>
       </c>
       <c r="E4">
-        <v>-0.01532271725683682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01811256607359271</v>
+      </c>
+      <c r="F4">
+        <v>0.006729056586006474</v>
+      </c>
+      <c r="G4">
+        <v>-0.05963640099037578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01539332882374761</v>
+        <v>0.03741831605893436</v>
       </c>
       <c r="C6">
-        <v>-0.01997511625386669</v>
+        <v>0.04954048442824004</v>
       </c>
       <c r="D6">
-        <v>-0.0792945279428781</v>
+        <v>0.01555872711174349</v>
       </c>
       <c r="E6">
-        <v>-0.006328169538301686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01708053184235587</v>
+      </c>
+      <c r="F6">
+        <v>0.01445800689370984</v>
+      </c>
+      <c r="G6">
+        <v>-0.03586232590111777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01063305514931052</v>
+        <v>0.01642586923444879</v>
       </c>
       <c r="C7">
-        <v>-0.006194933019796501</v>
+        <v>0.03610099789345357</v>
       </c>
       <c r="D7">
-        <v>-0.03028038969488096</v>
+        <v>0.01326446187248076</v>
       </c>
       <c r="E7">
-        <v>-0.07553826477961388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.008820160625073979</v>
+      </c>
+      <c r="F7">
+        <v>0.0009772023483722921</v>
+      </c>
+      <c r="G7">
+        <v>-0.1012114880835968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>9.460158725186222e-05</v>
+        <v>-0.001705737500065213</v>
       </c>
       <c r="C8">
-        <v>-0.0003527873392167109</v>
+        <v>0.01916994218175971</v>
       </c>
       <c r="D8">
-        <v>-0.006126409220318113</v>
+        <v>0.003897141205237977</v>
       </c>
       <c r="E8">
-        <v>-0.006904101168890159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02313003449472937</v>
+      </c>
+      <c r="F8">
+        <v>0.01973927637629247</v>
+      </c>
+      <c r="G8">
+        <v>-0.03189141552461396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01595865543938233</v>
+        <v>0.03268828561921671</v>
       </c>
       <c r="C9">
-        <v>-0.02372016655669446</v>
+        <v>0.04442110346250303</v>
       </c>
       <c r="D9">
-        <v>-0.04684514538976016</v>
+        <v>0.01613083673696103</v>
       </c>
       <c r="E9">
-        <v>-0.006054427933172501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01314546177783515</v>
+      </c>
+      <c r="F9">
+        <v>0.01307414618715396</v>
+      </c>
+      <c r="G9">
+        <v>-0.05678714438892041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01684650380404018</v>
+        <v>0.09218102627545371</v>
       </c>
       <c r="C10">
-        <v>-0.1555204167665218</v>
+        <v>-0.1840769300651799</v>
       </c>
       <c r="D10">
-        <v>0.123384353493542</v>
+        <v>-0.01754135757896065</v>
       </c>
       <c r="E10">
-        <v>-0.01337889972500635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.009691186627433143</v>
+      </c>
+      <c r="F10">
+        <v>-0.01865159259208107</v>
+      </c>
+      <c r="G10">
+        <v>-0.05001309753322696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0006857993083113795</v>
+        <v>0.03182063137334321</v>
       </c>
       <c r="C11">
-        <v>-0.009718902869726889</v>
+        <v>0.05373638842917794</v>
       </c>
       <c r="D11">
-        <v>-0.04177420006037792</v>
+        <v>0.002460574908480665</v>
       </c>
       <c r="E11">
-        <v>0.006247240784891125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.007372903808385703</v>
+      </c>
+      <c r="F11">
+        <v>0.02237978867580392</v>
+      </c>
+      <c r="G11">
+        <v>-0.03919951003887452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006144144692338446</v>
+        <v>0.03158874065775173</v>
       </c>
       <c r="C12">
-        <v>-0.01705916887999007</v>
+        <v>0.04576557300786448</v>
       </c>
       <c r="D12">
-        <v>-0.04368262972322574</v>
+        <v>0.006241146791327664</v>
       </c>
       <c r="E12">
-        <v>-0.002466194935889003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.00165886840131873</v>
+      </c>
+      <c r="F12">
+        <v>0.005424133096658295</v>
+      </c>
+      <c r="G12">
+        <v>-0.03891782853786144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02228689933828474</v>
+        <v>0.01473968933078153</v>
       </c>
       <c r="C13">
-        <v>-0.01678460511442641</v>
+        <v>0.03144692292217553</v>
       </c>
       <c r="D13">
-        <v>-0.008968811338247748</v>
+        <v>0.02506892369335158</v>
       </c>
       <c r="E13">
-        <v>0.009237088353946472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0230707397127236</v>
+      </c>
+      <c r="F13">
+        <v>0.01168064745749319</v>
+      </c>
+      <c r="G13">
+        <v>-0.05506572265562994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007673904105686131</v>
+        <v>0.008257521244968933</v>
       </c>
       <c r="C14">
-        <v>-0.01472644225757042</v>
+        <v>0.02549863023789044</v>
       </c>
       <c r="D14">
-        <v>-0.01303183444774441</v>
+        <v>0.008544453359965549</v>
       </c>
       <c r="E14">
-        <v>-0.01342846796138949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005931117232334194</v>
+      </c>
+      <c r="F14">
+        <v>-0.004791287254565909</v>
+      </c>
+      <c r="G14">
+        <v>-0.05625876686445015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.00147964280227888</v>
+        <v>0.03185475825529582</v>
       </c>
       <c r="C16">
-        <v>-0.01722236330776469</v>
+        <v>0.04444131516559539</v>
       </c>
       <c r="D16">
-        <v>-0.04548564129104917</v>
+        <v>0.001733096000260842</v>
       </c>
       <c r="E16">
-        <v>-0.001986436841229183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.005229866717409598</v>
+      </c>
+      <c r="F16">
+        <v>0.007897687429598666</v>
+      </c>
+      <c r="G16">
+        <v>-0.03947713223161789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01383233255766708</v>
+        <v>0.02284593458552394</v>
       </c>
       <c r="C19">
-        <v>-0.02535195347185677</v>
+        <v>0.04864957422693569</v>
       </c>
       <c r="D19">
-        <v>-0.01870851506124183</v>
+        <v>0.0164855240407221</v>
       </c>
       <c r="E19">
-        <v>-0.004719484373207941</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05387890232502305</v>
+      </c>
+      <c r="F19">
+        <v>0.02017906782151224</v>
+      </c>
+      <c r="G19">
+        <v>-0.06624886002855666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01091347619976487</v>
+        <v>0.01212394233747442</v>
       </c>
       <c r="C20">
-        <v>-0.0107933373692122</v>
+        <v>0.03271072238107791</v>
       </c>
       <c r="D20">
-        <v>-0.008965813446832123</v>
+        <v>0.01318320759640369</v>
       </c>
       <c r="E20">
-        <v>2.50544845322367e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02367530256726535</v>
+      </c>
+      <c r="F20">
+        <v>-0.002504462716756477</v>
+      </c>
+      <c r="G20">
+        <v>-0.05446128590544065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01524602578759144</v>
+        <v>0.01459040128868288</v>
       </c>
       <c r="C21">
-        <v>-0.0329673410600663</v>
+        <v>0.03395334321997864</v>
       </c>
       <c r="D21">
-        <v>-0.0163242367056774</v>
+        <v>0.01653627203172347</v>
       </c>
       <c r="E21">
-        <v>-0.01817074683831035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03132365447776086</v>
+      </c>
+      <c r="F21">
+        <v>0.001244859767297509</v>
+      </c>
+      <c r="G21">
+        <v>-0.07817574617514367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004766241156162575</v>
+        <v>0.02513190660466463</v>
       </c>
       <c r="C24">
-        <v>-0.005678542078864162</v>
+        <v>0.04820662018842465</v>
       </c>
       <c r="D24">
-        <v>-0.04117206508680093</v>
+        <v>0.0073079107245004</v>
       </c>
       <c r="E24">
-        <v>0.0002050583144056321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.003294480113780961</v>
+      </c>
+      <c r="F24">
+        <v>0.02005165225403391</v>
+      </c>
+      <c r="G24">
+        <v>-0.04214654142119155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01237377705290056</v>
+        <v>0.04000961128434548</v>
       </c>
       <c r="C25">
-        <v>-0.02584954312560767</v>
+        <v>0.05481434353634599</v>
       </c>
       <c r="D25">
-        <v>-0.04059093268473275</v>
+        <v>0.01128112158646823</v>
       </c>
       <c r="E25">
-        <v>0.0008590330585650686</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.004636463586998632</v>
+      </c>
+      <c r="F25">
+        <v>0.01238640931785166</v>
+      </c>
+      <c r="G25">
+        <v>-0.04734569177113697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02313601277558686</v>
+        <v>0.01291690986772404</v>
       </c>
       <c r="C26">
-        <v>-0.01213493799330733</v>
+        <v>0.007487980946228986</v>
       </c>
       <c r="D26">
-        <v>0.007151402044297232</v>
+        <v>0.02334059571305762</v>
       </c>
       <c r="E26">
-        <v>-0.00879354527575163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.003037916259988351</v>
+      </c>
+      <c r="F26">
+        <v>-0.004583037358529896</v>
+      </c>
+      <c r="G26">
+        <v>-0.0433559679544955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.03788252126726053</v>
+        <v>0.1197203624989466</v>
       </c>
       <c r="C28">
-        <v>-0.2263617437357968</v>
+        <v>-0.2312740891838265</v>
       </c>
       <c r="D28">
-        <v>0.1792566193832481</v>
+        <v>-0.008702236742811117</v>
       </c>
       <c r="E28">
-        <v>-0.02082502365366855</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.001039488542311197</v>
+      </c>
+      <c r="F28">
+        <v>-0.01858352957869424</v>
+      </c>
+      <c r="G28">
+        <v>-0.06401169158401089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007974694554740227</v>
+        <v>0.01064777595344938</v>
       </c>
       <c r="C29">
-        <v>-0.01935576120364568</v>
+        <v>0.01897858970716906</v>
       </c>
       <c r="D29">
-        <v>-0.00973178409307281</v>
+        <v>0.007296423188046995</v>
       </c>
       <c r="E29">
-        <v>-0.008230192388533869</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.008519937684613281</v>
+      </c>
+      <c r="F29">
+        <v>-0.01401801710154862</v>
+      </c>
+      <c r="G29">
+        <v>-0.04581156692814172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02379372306490811</v>
+        <v>0.04504935799220726</v>
       </c>
       <c r="C30">
-        <v>-0.009121064204976711</v>
+        <v>0.06264917958090427</v>
       </c>
       <c r="D30">
-        <v>-0.06196264452271209</v>
+        <v>0.0278397448639429</v>
       </c>
       <c r="E30">
-        <v>0.05485519253203774</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04473589706890268</v>
+      </c>
+      <c r="F30">
+        <v>0.05321250694893057</v>
+      </c>
+      <c r="G30">
+        <v>-0.03283667542470435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.008936990833749603</v>
+        <v>0.04987460198939694</v>
       </c>
       <c r="C31">
-        <v>-0.04393795304856748</v>
+        <v>0.03278506081358071</v>
       </c>
       <c r="D31">
-        <v>-0.04240119772503432</v>
+        <v>0.003254633831596372</v>
       </c>
       <c r="E31">
-        <v>-0.0114279586822641</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.007731691377491304</v>
+      </c>
+      <c r="F31">
+        <v>-0.03774974514942644</v>
+      </c>
+      <c r="G31">
+        <v>-0.04651841464545423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006150678205748806</v>
+        <v>-0.003514732713726621</v>
       </c>
       <c r="C32">
-        <v>-0.02195540346428257</v>
+        <v>0.02818822356577088</v>
       </c>
       <c r="D32">
-        <v>0.006751596704537713</v>
+        <v>-0.003963343636071755</v>
       </c>
       <c r="E32">
-        <v>-0.03210436101131023</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01550151828224163</v>
+      </c>
+      <c r="F32">
+        <v>0.04642019103411169</v>
+      </c>
+      <c r="G32">
+        <v>-0.06825626509276321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01340537492652488</v>
+        <v>0.0265757288616848</v>
       </c>
       <c r="C33">
-        <v>-0.02731537157949844</v>
+        <v>0.04609211270707362</v>
       </c>
       <c r="D33">
-        <v>-0.0208811761104462</v>
+        <v>0.01461374810664848</v>
       </c>
       <c r="E33">
-        <v>0.0230304655584139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02701751249647468</v>
+      </c>
+      <c r="F33">
+        <v>0.02158601055650044</v>
+      </c>
+      <c r="G33">
+        <v>-0.06062168675985592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003884038591843364</v>
+        <v>0.03929170188932758</v>
       </c>
       <c r="C34">
-        <v>-0.02501214751989922</v>
+        <v>0.05736198418798391</v>
       </c>
       <c r="D34">
-        <v>-0.04457003651686051</v>
+        <v>-0.004649885589735845</v>
       </c>
       <c r="E34">
-        <v>-0.006228212619918494</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.004287661115828107</v>
+      </c>
+      <c r="F34">
+        <v>0.02330657072828616</v>
+      </c>
+      <c r="G34">
+        <v>-0.04864873622030912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01300869545777659</v>
+        <v>0.01247276410347828</v>
       </c>
       <c r="C36">
-        <v>-0.02403096250802095</v>
+        <v>0.007775386050346583</v>
       </c>
       <c r="D36">
-        <v>-0.002355814986405164</v>
+        <v>0.01150729077050511</v>
       </c>
       <c r="E36">
-        <v>-0.002948771919492384</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0004908838813592115</v>
+      </c>
+      <c r="F36">
+        <v>-0.00582143987455775</v>
+      </c>
+      <c r="G36">
+        <v>-0.03885548925101093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003733001396243478</v>
+        <v>0.03052817884454066</v>
       </c>
       <c r="C38">
-        <v>-0.03885103412909044</v>
+        <v>0.02780453418247789</v>
       </c>
       <c r="D38">
-        <v>-0.02761777752174365</v>
+        <v>-0.007490870120448946</v>
       </c>
       <c r="E38">
-        <v>-0.001782274101234383</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003926080519256312</v>
+      </c>
+      <c r="F38">
+        <v>-0.01073007753997001</v>
+      </c>
+      <c r="G38">
+        <v>-0.04554238750311876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005637141617611657</v>
+        <v>0.03146984675020799</v>
       </c>
       <c r="C39">
-        <v>0.01208640414368805</v>
+        <v>0.08123132967441019</v>
       </c>
       <c r="D39">
-        <v>-0.09153137377190684</v>
+        <v>0.01224892387651761</v>
       </c>
       <c r="E39">
-        <v>0.006415077599267425</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02198406605266132</v>
+      </c>
+      <c r="F39">
+        <v>0.03236308414429652</v>
+      </c>
+      <c r="G39">
+        <v>-0.04382993896533854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01220586803590416</v>
+        <v>0.01937629500126773</v>
       </c>
       <c r="C40">
-        <v>-0.02495326671369314</v>
+        <v>0.03165199377994793</v>
       </c>
       <c r="D40">
-        <v>-0.02862185516380874</v>
+        <v>0.01335811659609732</v>
       </c>
       <c r="E40">
-        <v>0.002365874584049177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01945647018334363</v>
+      </c>
+      <c r="F40">
+        <v>0.01384918273263541</v>
+      </c>
+      <c r="G40">
+        <v>-0.04261950937265417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006030837540001157</v>
+        <v>0.01024651395115291</v>
       </c>
       <c r="C41">
-        <v>-0.02214022201729725</v>
+        <v>0.0005008370492340464</v>
       </c>
       <c r="D41">
-        <v>0.009122683902137633</v>
+        <v>0.003792530130794663</v>
       </c>
       <c r="E41">
-        <v>-0.003025779474513183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002442591624681893</v>
+      </c>
+      <c r="F41">
+        <v>-0.0089140324417608</v>
+      </c>
+      <c r="G41">
+        <v>-0.02662972760748988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09370148584090016</v>
+        <v>0.01438452662052689</v>
       </c>
       <c r="C42">
-        <v>-0.005744519612519104</v>
+        <v>0.04170764035575036</v>
       </c>
       <c r="D42">
-        <v>-0.2760020194318442</v>
+        <v>0.09434629874557876</v>
       </c>
       <c r="E42">
-        <v>0.2786086103796563</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03358748561054999</v>
+      </c>
+      <c r="F42">
+        <v>-0.04253456772250159</v>
+      </c>
+      <c r="G42">
+        <v>0.1622836577811562</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007495578307519724</v>
+        <v>0.02925949026198219</v>
       </c>
       <c r="C43">
-        <v>-0.02661898334997453</v>
+        <v>0.01251008927109797</v>
       </c>
       <c r="D43">
-        <v>0.01333149547029739</v>
+        <v>0.004914705334169165</v>
       </c>
       <c r="E43">
-        <v>0.003272973983915251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.008849862214349399</v>
+      </c>
+      <c r="F43">
+        <v>-0.002596521162563625</v>
+      </c>
+      <c r="G43">
+        <v>-0.04050174011679088</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003604239573503515</v>
+        <v>0.01623364092754179</v>
       </c>
       <c r="C44">
-        <v>-0.01035576591401277</v>
+        <v>0.04787526652704662</v>
       </c>
       <c r="D44">
-        <v>-0.02701189685157255</v>
+        <v>0.006170082567784854</v>
       </c>
       <c r="E44">
-        <v>-0.001660912225303738</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01651118537327263</v>
+      </c>
+      <c r="F44">
+        <v>0.0008199424408868934</v>
+      </c>
+      <c r="G44">
+        <v>-0.05840262945946308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01120670104826977</v>
+        <v>0.006034719691726282</v>
       </c>
       <c r="C46">
-        <v>-0.01950562295450765</v>
+        <v>0.01684240308698108</v>
       </c>
       <c r="D46">
-        <v>-0.01024992597726942</v>
+        <v>0.01141437328383683</v>
       </c>
       <c r="E46">
-        <v>-0.002183695304246382</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.006802168450117905</v>
+      </c>
+      <c r="F46">
+        <v>-0.01741037493973329</v>
+      </c>
+      <c r="G46">
+        <v>-0.04373804243820619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.003481951565544834</v>
+        <v>0.07618797756431996</v>
       </c>
       <c r="C47">
-        <v>-0.0599392172116652</v>
+        <v>0.06530719194333423</v>
       </c>
       <c r="D47">
-        <v>-0.05495645816793787</v>
+        <v>-0.005176373179993849</v>
       </c>
       <c r="E47">
-        <v>-0.0005546700680455147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01151933340011814</v>
+      </c>
+      <c r="F47">
+        <v>-0.05457170807448517</v>
+      </c>
+      <c r="G47">
+        <v>-0.04183734699081913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.003843211707890415</v>
+        <v>0.0200424482855607</v>
       </c>
       <c r="C48">
-        <v>-0.03004878860153844</v>
+        <v>0.008938383459611005</v>
       </c>
       <c r="D48">
-        <v>-0.008911343246701876</v>
+        <v>0.0006674620637492712</v>
       </c>
       <c r="E48">
-        <v>-0.003600041644871348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.005029154237713583</v>
+      </c>
+      <c r="F48">
+        <v>-0.01891466239281548</v>
+      </c>
+      <c r="G48">
+        <v>-0.04417381879837724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.005443856917940002</v>
+        <v>0.07885395844091031</v>
       </c>
       <c r="C50">
-        <v>-0.0580702864200272</v>
+        <v>0.06643008506896596</v>
       </c>
       <c r="D50">
-        <v>-0.05929739408884242</v>
+        <v>-0.003547066392751367</v>
       </c>
       <c r="E50">
-        <v>-0.03076990194525376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01594995814200042</v>
+      </c>
+      <c r="F50">
+        <v>-0.05861128057784327</v>
+      </c>
+      <c r="G50">
+        <v>-0.06675148121208879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007619455937665722</v>
+        <v>0.01362114559894283</v>
       </c>
       <c r="C51">
-        <v>-0.02120320232320619</v>
+        <v>0.03301389966276393</v>
       </c>
       <c r="D51">
-        <v>0.005143837055727773</v>
+        <v>0.009549567692723063</v>
       </c>
       <c r="E51">
-        <v>-0.003247279002238032</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01224775493223912</v>
+      </c>
+      <c r="F51">
+        <v>0.02902053617875733</v>
+      </c>
+      <c r="G51">
+        <v>-0.06613766273981703</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.00647148993831132</v>
+        <v>0.08386148363840154</v>
       </c>
       <c r="C53">
-        <v>-0.07421438176270531</v>
+        <v>0.07970578590452324</v>
       </c>
       <c r="D53">
-        <v>-0.1148988271813062</v>
+        <v>-0.00464662498296445</v>
       </c>
       <c r="E53">
-        <v>-0.009885412242786549</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.0350375407502458</v>
+      </c>
+      <c r="F53">
+        <v>-0.05906581881849076</v>
+      </c>
+      <c r="G53">
+        <v>-0.04027719517649426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0006414304927612134</v>
+        <v>0.03186069636337664</v>
       </c>
       <c r="C54">
-        <v>-0.03647544793122105</v>
+        <v>0.01224263134730899</v>
       </c>
       <c r="D54">
-        <v>0.00989374639497813</v>
+        <v>-0.002987500373283567</v>
       </c>
       <c r="E54">
-        <v>-0.01061390368903616</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0008911641122168481</v>
+      </c>
+      <c r="F54">
+        <v>-0.006534872874080526</v>
+      </c>
+      <c r="G54">
+        <v>-0.04863783290450727</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003595326995945651</v>
+        <v>0.07204260569379212</v>
       </c>
       <c r="C55">
-        <v>-0.05600367399717672</v>
+        <v>0.07130608915042173</v>
       </c>
       <c r="D55">
-        <v>-0.09876825330465178</v>
+        <v>-0.005126794209137833</v>
       </c>
       <c r="E55">
-        <v>0.003653665985717965</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02706772872892145</v>
+      </c>
+      <c r="F55">
+        <v>-0.05698341672803445</v>
+      </c>
+      <c r="G55">
+        <v>-0.02219422109588511</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.005229996399969139</v>
+        <v>0.1429520478341498</v>
       </c>
       <c r="C56">
-        <v>-0.102848470064929</v>
+        <v>0.1055725855925008</v>
       </c>
       <c r="D56">
-        <v>-0.1462476596265088</v>
+        <v>-0.0130490127016696</v>
       </c>
       <c r="E56">
-        <v>-0.0007646159641506331</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04022908582325044</v>
+      </c>
+      <c r="F56">
+        <v>-0.08111345281715146</v>
+      </c>
+      <c r="G56">
+        <v>-0.009412913313511889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02426270957457806</v>
+        <v>0.009412797082358898</v>
       </c>
       <c r="C57">
-        <v>-0.02399477058626488</v>
+        <v>0.009459064459876477</v>
       </c>
       <c r="D57">
-        <v>-0.03979501216185872</v>
+        <v>0.02354789172851839</v>
       </c>
       <c r="E57">
-        <v>0.003522218709930704</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02742992412155914</v>
+      </c>
+      <c r="F57">
+        <v>0.01129170569959047</v>
+      </c>
+      <c r="G57">
+        <v>-0.02425734966031398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01374740642519211</v>
+        <v>0.08256998280348651</v>
       </c>
       <c r="C58">
-        <v>-0.1057038754278898</v>
+        <v>0.03373241728335995</v>
       </c>
       <c r="D58">
-        <v>-0.0904576555977905</v>
+        <v>0.01663171441780368</v>
       </c>
       <c r="E58">
-        <v>0.199892486161446</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.939405527175495</v>
+      </c>
+      <c r="F58">
+        <v>-0.2458631195059665</v>
+      </c>
+      <c r="G58">
+        <v>0.02640107610070586</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.03472658026065519</v>
+        <v>0.1605060032031373</v>
       </c>
       <c r="C59">
-        <v>-0.2418475033572954</v>
+        <v>-0.2109804288266401</v>
       </c>
       <c r="D59">
-        <v>0.1819598115182675</v>
+        <v>-0.01557703568437754</v>
       </c>
       <c r="E59">
-        <v>0.002446974355940112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.005170696773933533</v>
+      </c>
+      <c r="F59">
+        <v>0.005282520756196317</v>
+      </c>
+      <c r="G59">
+        <v>-0.02142646282339015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03825274150613526</v>
+        <v>0.2834241970127099</v>
       </c>
       <c r="C60">
-        <v>-0.1661181512486831</v>
+        <v>0.1013735905810083</v>
       </c>
       <c r="D60">
-        <v>-0.06685871578760381</v>
+        <v>0.01243724662239903</v>
       </c>
       <c r="E60">
-        <v>0.03977312260398004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.001138791086158964</v>
+      </c>
+      <c r="F60">
+        <v>0.3379348156646849</v>
+      </c>
+      <c r="G60">
+        <v>0.09568820843269109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003800892724740235</v>
+        <v>0.03451194424923298</v>
       </c>
       <c r="C61">
-        <v>-0.01432607752182381</v>
+        <v>0.06472627101746686</v>
       </c>
       <c r="D61">
-        <v>-0.06203165073799237</v>
+        <v>0.005561071073855998</v>
       </c>
       <c r="E61">
-        <v>0.002650893796519337</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01120254458324724</v>
+      </c>
+      <c r="F61">
+        <v>0.01929332379753014</v>
+      </c>
+      <c r="G61">
+        <v>-0.03988015284874943</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007677694259965289</v>
+        <v>0.01351791063416027</v>
       </c>
       <c r="C63">
-        <v>-0.01087217876481676</v>
+        <v>0.02777645632940227</v>
       </c>
       <c r="D63">
-        <v>-0.006850888303176611</v>
+        <v>0.007904616590014749</v>
       </c>
       <c r="E63">
-        <v>-0.008180906691549757</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.004489000802520006</v>
+      </c>
+      <c r="F63">
+        <v>-0.01585038432332548</v>
+      </c>
+      <c r="G63">
+        <v>-0.04844846618815963</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.008266342858344667</v>
+        <v>0.0516926812998764</v>
       </c>
       <c r="C64">
-        <v>-0.03463031253786675</v>
+        <v>0.0448392473282884</v>
       </c>
       <c r="D64">
-        <v>-0.0648234268387485</v>
+        <v>0.005495237653888686</v>
       </c>
       <c r="E64">
-        <v>0.01266417674101122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.006467285568952208</v>
+      </c>
+      <c r="F64">
+        <v>0.004497036773548004</v>
+      </c>
+      <c r="G64">
+        <v>-0.03303851410939139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0175906615940722</v>
+        <v>0.0840320364501857</v>
       </c>
       <c r="C65">
-        <v>-0.02357809113013448</v>
+        <v>0.05822823163499157</v>
       </c>
       <c r="D65">
-        <v>-0.08984002186427277</v>
+        <v>0.01474455981089389</v>
       </c>
       <c r="E65">
-        <v>-0.005544978489282823</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01733392333092272</v>
+      </c>
+      <c r="F65">
+        <v>0.02981648682704</v>
+      </c>
+      <c r="G65">
+        <v>-0.01614887174042731</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.00560972957909932</v>
+        <v>0.04990528403959063</v>
       </c>
       <c r="C66">
-        <v>0.00184314583250662</v>
+        <v>0.1123706166487621</v>
       </c>
       <c r="D66">
-        <v>-0.1180579265864843</v>
+        <v>0.01206564966842463</v>
       </c>
       <c r="E66">
-        <v>0.01856628472867597</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.0270681762988844</v>
+      </c>
+      <c r="F66">
+        <v>0.03822485540378238</v>
+      </c>
+      <c r="G66">
+        <v>-0.04072708147567716</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.002523446140344298</v>
+        <v>0.05268511920754532</v>
       </c>
       <c r="C67">
-        <v>-0.06039804311612328</v>
+        <v>0.03176188797916096</v>
       </c>
       <c r="D67">
-        <v>-0.03137216059264385</v>
+        <v>-0.005546468864672943</v>
       </c>
       <c r="E67">
-        <v>-0.001047797348576181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.002335429751092025</v>
+      </c>
+      <c r="F67">
+        <v>-0.01271313469092221</v>
+      </c>
+      <c r="G67">
+        <v>-0.04267894684797075</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05211164924932452</v>
+        <v>0.1428723191832101</v>
       </c>
       <c r="C68">
-        <v>-0.2162781289469062</v>
+        <v>-0.2708071433777945</v>
       </c>
       <c r="D68">
-        <v>0.1688928177273394</v>
+        <v>0.002623254819909751</v>
       </c>
       <c r="E68">
-        <v>0.006212512950516148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.004716509714487838</v>
+      </c>
+      <c r="F68">
+        <v>-0.03235831991060804</v>
+      </c>
+      <c r="G68">
+        <v>-0.02261170940027277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.001309005896879584</v>
+        <v>0.07685529393652149</v>
       </c>
       <c r="C69">
-        <v>-0.0493096188821423</v>
+        <v>0.06756349870149526</v>
       </c>
       <c r="D69">
-        <v>-0.05960182918196411</v>
+        <v>-0.008869002366146251</v>
       </c>
       <c r="E69">
-        <v>-0.001533076221394949</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02793614177875703</v>
+      </c>
+      <c r="F69">
+        <v>-0.03860247022584842</v>
+      </c>
+      <c r="G69">
+        <v>-0.04644055698157205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.03789528157514432</v>
+        <v>0.1362870824729427</v>
       </c>
       <c r="C71">
-        <v>-0.1897363377758523</v>
+        <v>-0.233357083943178</v>
       </c>
       <c r="D71">
-        <v>0.1516824723382192</v>
+        <v>-0.006286510527668123</v>
       </c>
       <c r="E71">
-        <v>-0.007367517875800408</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0228270986389067</v>
+      </c>
+      <c r="F71">
+        <v>-0.009360752802487163</v>
+      </c>
+      <c r="G71">
+        <v>-0.03893613944049972</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-3.056339173877534e-05</v>
+        <v>0.08451820289159633</v>
       </c>
       <c r="C72">
-        <v>-0.05890960409819686</v>
+        <v>0.07284134932183775</v>
       </c>
       <c r="D72">
-        <v>-0.1286342128299434</v>
+        <v>-0.007895693375420511</v>
       </c>
       <c r="E72">
-        <v>0.01940640994839896</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.003364480360226952</v>
+      </c>
+      <c r="F72">
+        <v>0.04629128794886269</v>
+      </c>
+      <c r="G72">
+        <v>-0.01912254695048761</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05195932189356487</v>
+        <v>0.400619449542008</v>
       </c>
       <c r="C73">
-        <v>-0.1942615258480165</v>
+        <v>0.1219462004289676</v>
       </c>
       <c r="D73">
-        <v>-0.1624406621017979</v>
+        <v>0.02017187073867207</v>
       </c>
       <c r="E73">
-        <v>0.09676476474394936</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06867139587020776</v>
+      </c>
+      <c r="F73">
+        <v>0.5558218292613729</v>
+      </c>
+      <c r="G73">
+        <v>0.1668045992743132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.002763537863692778</v>
+        <v>0.1116703957128659</v>
       </c>
       <c r="C74">
-        <v>-0.09447829098517815</v>
+        <v>0.1155742553698745</v>
       </c>
       <c r="D74">
-        <v>-0.1527464609101072</v>
+        <v>-0.01009123751513739</v>
       </c>
       <c r="E74">
-        <v>0.006735414698557728</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0181244539596441</v>
+      </c>
+      <c r="F74">
+        <v>-0.07617297187228513</v>
+      </c>
+      <c r="G74">
+        <v>-0.04802398142275419</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.009435131354693597</v>
+        <v>0.2501163342692228</v>
       </c>
       <c r="C75">
-        <v>-0.2052450604232697</v>
+        <v>0.1530167027140641</v>
       </c>
       <c r="D75">
-        <v>-0.2729648865010884</v>
+        <v>-0.03033117968355006</v>
       </c>
       <c r="E75">
-        <v>0.01560099480308075</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05943506479781341</v>
+      </c>
+      <c r="F75">
+        <v>-0.1853729085337977</v>
+      </c>
+      <c r="G75">
+        <v>0.03988335728718553</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.001079672662377507</v>
+        <v>0.1265071597412965</v>
       </c>
       <c r="C76">
-        <v>-0.1366856698016746</v>
+        <v>0.1155481107489607</v>
       </c>
       <c r="D76">
-        <v>-0.2223194453621828</v>
+        <v>-0.02112154640376132</v>
       </c>
       <c r="E76">
-        <v>-0.01239420750105298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.05067732134568543</v>
+      </c>
+      <c r="F76">
+        <v>-0.1186869372334848</v>
+      </c>
+      <c r="G76">
+        <v>-0.02325418750985075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0123785432541769</v>
+        <v>0.06498250352024372</v>
       </c>
       <c r="C77">
-        <v>-0.02282457224597404</v>
+        <v>0.06072901147301404</v>
       </c>
       <c r="D77">
-        <v>-0.05275901657739753</v>
+        <v>0.01221448428958106</v>
       </c>
       <c r="E77">
-        <v>0.006801604456929731</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04920799599049185</v>
+      </c>
+      <c r="F77">
+        <v>0.008782844049521347</v>
+      </c>
+      <c r="G77">
+        <v>-0.05158867953665697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004670342921977277</v>
+        <v>0.04189859060571724</v>
       </c>
       <c r="C78">
-        <v>-0.01915873343726242</v>
+        <v>0.05121108768479361</v>
       </c>
       <c r="D78">
-        <v>-0.0619834028485584</v>
+        <v>0.005569690895235751</v>
       </c>
       <c r="E78">
-        <v>-2.360297372864544e-05</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02067120875879767</v>
+      </c>
+      <c r="F78">
+        <v>0.04001692913980322</v>
+      </c>
+      <c r="G78">
+        <v>-0.0477894179087472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0158437602344823</v>
+        <v>0.05452270115960867</v>
       </c>
       <c r="C80">
-        <v>-0.1021760462510007</v>
+        <v>0.06588522530081511</v>
       </c>
       <c r="D80">
-        <v>-0.1559709696788518</v>
+        <v>0.01236091107221527</v>
       </c>
       <c r="E80">
-        <v>-0.913934395360524</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03219122834714562</v>
+      </c>
+      <c r="F80">
+        <v>0.02211694664331092</v>
+      </c>
+      <c r="G80">
+        <v>-0.8477838765378253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.006786013237584755</v>
+        <v>0.144422001124922</v>
       </c>
       <c r="C81">
-        <v>-0.1274832094477218</v>
+        <v>0.09108157542410043</v>
       </c>
       <c r="D81">
-        <v>-0.1602267438933412</v>
+        <v>-0.01563232086365459</v>
       </c>
       <c r="E81">
-        <v>-0.0002912205971047937</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03496554890337845</v>
+      </c>
+      <c r="F81">
+        <v>-0.1253869115572908</v>
+      </c>
+      <c r="G81">
+        <v>-0.02034336007210764</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1035703336678339</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05381073833621859</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.00524342796356755</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07806628037377222</v>
+      </c>
+      <c r="F82">
+        <v>-0.01290008616559091</v>
+      </c>
+      <c r="G82">
+        <v>-0.02468510822611159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007291511112875368</v>
+        <v>0.02868162002818335</v>
       </c>
       <c r="C83">
-        <v>-0.02545611436687</v>
+        <v>0.02357072474239142</v>
       </c>
       <c r="D83">
-        <v>-0.02143977788233843</v>
+        <v>0.006015590867356953</v>
       </c>
       <c r="E83">
-        <v>0.002254651750078998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0281173658495474</v>
+      </c>
+      <c r="F83">
+        <v>0.0368641817592924</v>
+      </c>
+      <c r="G83">
+        <v>-0.03256731156415348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01570671272542161</v>
+        <v>0.2214758995284801</v>
       </c>
       <c r="C85">
-        <v>-0.1601555940520455</v>
+        <v>0.1463712819823431</v>
       </c>
       <c r="D85">
-        <v>-0.2565014175917478</v>
+        <v>-0.01838187045300194</v>
       </c>
       <c r="E85">
-        <v>0.02228510797798685</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09955012406975143</v>
+      </c>
+      <c r="F85">
+        <v>-0.1491065460696701</v>
+      </c>
+      <c r="G85">
+        <v>0.07182638936410871</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007645971818195726</v>
+        <v>0.01378249959979777</v>
       </c>
       <c r="C86">
-        <v>-0.02833177473263525</v>
+        <v>0.02012677994409661</v>
       </c>
       <c r="D86">
-        <v>-0.007787316555013295</v>
+        <v>0.01088558570594795</v>
       </c>
       <c r="E86">
-        <v>0.02849666157056768</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03849533129931168</v>
+      </c>
+      <c r="F86">
+        <v>0.04667344329947361</v>
+      </c>
+      <c r="G86">
+        <v>-0.08362850008998206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.00783815311665086</v>
+        <v>0.01978000086649914</v>
       </c>
       <c r="C87">
-        <v>-0.01764696241522152</v>
+        <v>0.02407078257878598</v>
       </c>
       <c r="D87">
-        <v>-0.04088390928315608</v>
+        <v>0.01087416043645512</v>
       </c>
       <c r="E87">
-        <v>0.005233058421475138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08312173645918108</v>
+      </c>
+      <c r="F87">
+        <v>0.02486332735423837</v>
+      </c>
+      <c r="G87">
+        <v>-0.06274731698439996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.0275289888358729</v>
+        <v>0.08959184033893597</v>
       </c>
       <c r="C88">
-        <v>-0.03801375631233959</v>
+        <v>0.06273634694297567</v>
       </c>
       <c r="D88">
-        <v>-0.03618812035432228</v>
+        <v>0.02236713813082232</v>
       </c>
       <c r="E88">
-        <v>-0.001019427934515627</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01630042746272869</v>
+      </c>
+      <c r="F88">
+        <v>-0.02518369978304694</v>
+      </c>
+      <c r="G88">
+        <v>-0.03949064413000328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07269480391300967</v>
+        <v>0.22046341309483</v>
       </c>
       <c r="C89">
-        <v>-0.3551767751520566</v>
+        <v>-0.3694886566699223</v>
       </c>
       <c r="D89">
-        <v>0.2644571847460224</v>
+        <v>-0.005107045133113883</v>
       </c>
       <c r="E89">
-        <v>0.01213713291903898</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02167225827171372</v>
+      </c>
+      <c r="F89">
+        <v>-0.02192843177659686</v>
+      </c>
+      <c r="G89">
+        <v>-0.03470921267047958</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.05476484461563246</v>
+        <v>0.19846067319062</v>
       </c>
       <c r="C90">
-        <v>-0.267456326923951</v>
+        <v>-0.3300384912677758</v>
       </c>
       <c r="D90">
-        <v>0.2315303654115226</v>
+        <v>-0.009584418279010548</v>
       </c>
       <c r="E90">
-        <v>0.01394821305970722</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02270531845279817</v>
+      </c>
+      <c r="F90">
+        <v>-0.04384345383802509</v>
+      </c>
+      <c r="G90">
+        <v>-0.007001324049301234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.005524702865114049</v>
+        <v>0.1974360429260795</v>
       </c>
       <c r="C91">
-        <v>-0.176734016941503</v>
+        <v>0.1364919292136121</v>
       </c>
       <c r="D91">
-        <v>-0.2300510973876043</v>
+        <v>-0.02409732449236303</v>
       </c>
       <c r="E91">
-        <v>0.002092328247629315</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07466647866310616</v>
+      </c>
+      <c r="F91">
+        <v>-0.1569726454558919</v>
+      </c>
+      <c r="G91">
+        <v>-0.005702235872864831</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.02242268589588909</v>
+        <v>0.2044269442420652</v>
       </c>
       <c r="C92">
-        <v>-0.3091430976937219</v>
+        <v>-0.2634509511599712</v>
       </c>
       <c r="D92">
-        <v>0.1190400554774493</v>
+        <v>-0.04558047744497642</v>
       </c>
       <c r="E92">
-        <v>0.003401666030661627</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.003932801828988296</v>
+      </c>
+      <c r="F92">
+        <v>-0.06570108213400033</v>
+      </c>
+      <c r="G92">
+        <v>-0.07780339804132097</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05321209291974333</v>
+        <v>0.2270482088086476</v>
       </c>
       <c r="C93">
-        <v>-0.2995672623666364</v>
+        <v>-0.3240374363338322</v>
       </c>
       <c r="D93">
-        <v>0.228868458268818</v>
+        <v>-0.01637440188611173</v>
       </c>
       <c r="E93">
-        <v>0.03336868813658542</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009232862166654508</v>
+      </c>
+      <c r="F93">
+        <v>-0.03766107621564883</v>
+      </c>
+      <c r="G93">
+        <v>-0.00647718597153206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02900589009780413</v>
+        <v>0.3003380385954394</v>
       </c>
       <c r="C94">
-        <v>-0.2114533571667093</v>
+        <v>0.1792239659623674</v>
       </c>
       <c r="D94">
-        <v>-0.2322023530429276</v>
+        <v>-0.01633606275000436</v>
       </c>
       <c r="E94">
-        <v>0.04393858047103915</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1601967545172526</v>
+      </c>
+      <c r="F94">
+        <v>-0.4871434147065952</v>
+      </c>
+      <c r="G94">
+        <v>0.2043735709491699</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004621697009885206</v>
+        <v>0.0857719555023379</v>
       </c>
       <c r="C95">
-        <v>-0.04900738603609819</v>
+        <v>0.08655425428156632</v>
       </c>
       <c r="D95">
-        <v>-0.09016839728323144</v>
+        <v>-0.006665336100359068</v>
       </c>
       <c r="E95">
-        <v>0.1076733990156613</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07537826498140744</v>
+      </c>
+      <c r="F95">
+        <v>0.1955898711842563</v>
+      </c>
+      <c r="G95">
+        <v>0.06896525887081711</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01267647892024972</v>
+        <v>0.1981596521257922</v>
       </c>
       <c r="C98">
-        <v>-0.1692603213169518</v>
+        <v>0.04528313548116061</v>
       </c>
       <c r="D98">
-        <v>-0.1109164547554215</v>
+        <v>-0.01276231714892686</v>
       </c>
       <c r="E98">
-        <v>0.05922613859447472</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06953656357059669</v>
+      </c>
+      <c r="F98">
+        <v>0.2447103354491793</v>
+      </c>
+      <c r="G98">
+        <v>0.02794430942852669</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00775926453585297</v>
+        <v>0.01043191376015673</v>
       </c>
       <c r="C101">
-        <v>-0.01898628665293007</v>
+        <v>0.01893214298564369</v>
       </c>
       <c r="D101">
-        <v>-0.009526809112148567</v>
+        <v>0.007121784798963982</v>
       </c>
       <c r="E101">
-        <v>-0.00870244870066976</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.008776218314896521</v>
+      </c>
+      <c r="F101">
+        <v>-0.01507885986806842</v>
+      </c>
+      <c r="G101">
+        <v>-0.04562270851795713</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01720680625372457</v>
+        <v>0.120405910852884</v>
       </c>
       <c r="C102">
-        <v>-0.09061527710544102</v>
+        <v>0.08379095860711663</v>
       </c>
       <c r="D102">
-        <v>-0.1214997157209755</v>
+        <v>0.001295893223395108</v>
       </c>
       <c r="E102">
-        <v>0.008609373238687129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.0316869637650487</v>
+      </c>
+      <c r="F102">
+        <v>-0.04113211319455098</v>
+      </c>
+      <c r="G102">
+        <v>0.001389927801603855</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001613512835826379</v>
+        <v>0.003496572502725117</v>
       </c>
       <c r="C103">
-        <v>-0.01232965429440477</v>
+        <v>0.004672459592486829</v>
       </c>
       <c r="D103">
-        <v>-0.02535527191604998</v>
+        <v>0.0001322150387024007</v>
       </c>
       <c r="E103">
-        <v>-0.01588701005537779</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.002095190395269649</v>
+      </c>
+      <c r="F103">
+        <v>-0.009243897222923306</v>
+      </c>
+      <c r="G103">
+        <v>-0.01604501396581327</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9789738006408969</v>
+        <v>0.02775692529145065</v>
       </c>
       <c r="C104">
-        <v>0.152774138778827</v>
+        <v>-0.03830988137486583</v>
       </c>
       <c r="D104">
-        <v>0.001028587503460446</v>
+        <v>0.9873786358341266</v>
       </c>
       <c r="E104">
-        <v>-0.02664564080962015</v>
+        <v>-0.04103221903524971</v>
+      </c>
+      <c r="F104">
+        <v>-0.04203826864951297</v>
+      </c>
+      <c r="G104">
+        <v>0.01299619512325905</v>
       </c>
     </row>
   </sheetData>
